--- a/Valori accuracy e Loss.xlsx
+++ b/Valori accuracy e Loss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Progetto_pytorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16AFAF3A-5BB0-4D7B-A5EB-4DC6475DE9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378D64D8-C0AD-4C29-B1D0-31AA8381110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{0F6AD237-813C-49B1-A209-C65A401005C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>EPOCA</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Luci-Material</t>
+  </si>
+  <si>
+    <t>15 epoche</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +386,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,57 +713,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1218343A-785F-4A6F-921F-16AE877F5FA4}">
   <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -1209,96 +1221,125 @@
         <v>5</v>
       </c>
       <c r="C15" s="13">
-        <f>MAX(C5:C14)</f>
+        <f t="shared" ref="C15:N15" si="0">MAX(C5:C14)</f>
         <v>0.84119999999999995</v>
       </c>
       <c r="D15" s="14">
-        <f>MAX(D5:D14)</f>
+        <f t="shared" si="0"/>
         <v>0.38500000000000001</v>
       </c>
       <c r="E15" s="13">
-        <f>MAX(E5:E14)</f>
+        <f t="shared" si="0"/>
         <v>0.91400000000000003</v>
       </c>
       <c r="F15" s="14">
-        <f>MAX(F5:F14)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="G15" s="13">
-        <f>MAX(G5:G14)</f>
+        <f t="shared" si="0"/>
         <v>0.70799999999999996</v>
       </c>
       <c r="H15" s="14">
-        <f>MAX(H5:H14)</f>
+        <f t="shared" si="0"/>
         <v>0.315</v>
       </c>
       <c r="I15" s="13">
-        <f>MAX(I5:I14)</f>
+        <f t="shared" si="0"/>
         <v>0.52180000000000004</v>
       </c>
       <c r="J15" s="14">
-        <f>MAX(J5:J14)</f>
+        <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
       <c r="K15" s="13">
-        <f>MAX(K5:K14)</f>
+        <f t="shared" si="0"/>
         <v>0.88019999999999998</v>
       </c>
       <c r="L15" s="14">
-        <f>MAX(L5:L14)</f>
+        <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
       <c r="M15" s="13">
-        <f>MAX(M5:M14)</f>
+        <f t="shared" si="0"/>
         <v>0.51839999999999997</v>
       </c>
       <c r="N15" s="14">
-        <f>MAX(N5:N14)</f>
+        <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21">
+        <v>0.315</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21">
+        <v>0.315</v>
+      </c>
+    </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="19"/>
+      <c r="I21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
@@ -1422,6 +1463,13 @@
     <row r="25" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
@@ -1429,13 +1477,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
